--- a/meeting-appointment-admin/src/main/resources/apply/会议纪要.xlsx
+++ b/meeting-appointment-admin/src/main/resources/apply/会议纪要.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>编号：9fzt-xx-HY字｛2023｝A-001</t>
   </si>
@@ -97,30 +97,6 @@
       </rPr>
       <t>待优化</t>
     </r>
-  </si>
-  <si>
-    <t>实现-系统界面优化</t>
-  </si>
-  <si>
-    <t>研发需求</t>
-  </si>
-  <si>
-    <t>实现-管理员可见统计图</t>
-  </si>
-  <si>
-    <t>实现-编辑会议室</t>
-  </si>
-  <si>
-    <t>实现-定时任务发送消息</t>
-  </si>
-  <si>
-    <t>实现企业微信自动登录</t>
-  </si>
-  <si>
-    <t>会议纪要功能</t>
-  </si>
-  <si>
-    <t>实现自动更新部门成员，扫码更新部门列表</t>
   </si>
   <si>
     <r>
@@ -520,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -696,34 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -832,7 +780,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,7 +810,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,28 +828,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,10 +858,10 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,27 +987,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1704,121 +1637,23 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+    <row r="14" ht="19" customHeight="1" spans="1:8">
+      <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:8">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" ht="19" customHeight="1" spans="1:8">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:8">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:8">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:8">
-      <c r="A21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -1828,9 +1663,8 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
